--- a/src/test/resources/spreadsheet_examples/test_spreadsheet.xlsx
+++ b/src/test/resources/spreadsheet_examples/test_spreadsheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonle/Developer/vortexa/hard-data-hackathon-jvm/src/test/resources/spreadsheet_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\stefbg\projects\refinery\src\test\resources\spreadsheet_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2169D9-D109-EE40-A5B8-F837A48528E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC11935-F8C6-4718-8A6D-652E52B30386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{870AAEF9-2DE1-494F-88CE-485EB3D1B417}"/>
+    <workbookView xWindow="-23136" yWindow="-3078" windowWidth="23232" windowHeight="12432" xr2:uid="{870AAEF9-2DE1-494F-88CE-485EB3D1B417}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -420,18 +420,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B375211-7F82-3148-A5B5-8DEC9DA19438}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +446,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -471,7 +471,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -480,6 +480,20 @@
       </c>
       <c r="C4" s="3">
         <v>44199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>_xlfn.CONCAT(A4,,A3)</f>
+        <v>threetwo</v>
+      </c>
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <f>C4+1</f>
+        <v>44200</v>
       </c>
     </row>
   </sheetData>
